--- a/doc/todo.xlsx
+++ b/doc/todo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>serialization</t>
   </si>
@@ -214,6 +214,75 @@
   </si>
   <si>
     <t>instancing</t>
+  </si>
+  <si>
+    <t>Props</t>
+  </si>
+  <si>
+    <t>Generic cayon rotsen</t>
+  </si>
+  <si>
+    <t>Plankjes en paaltjes</t>
+  </si>
+  <si>
+    <t>cactussen</t>
+  </si>
+  <si>
+    <t>wegen</t>
+  </si>
+  <si>
+    <t>zandweg</t>
+  </si>
+  <si>
+    <t>treinsporen</t>
+  </si>
+  <si>
+    <t>barrel, boxen, buizen</t>
+  </si>
+  <si>
+    <t>dik gras</t>
+  </si>
+  <si>
+    <t>elentriek palen</t>
+  </si>
+  <si>
+    <t>western farm stuff (water toren, windmolen)</t>
+  </si>
+  <si>
+    <t>vangrails</t>
+  </si>
+  <si>
+    <t>staartlampen</t>
+  </si>
+  <si>
+    <t>ramps (rots, hout, ...)</t>
+  </si>
+  <si>
+    <t>gaten in de weg</t>
+  </si>
+  <si>
+    <t>Roadparts</t>
+  </si>
+  <si>
+    <t>rechte weg</t>
+  </si>
+  <si>
+    <t>lang+kort 30° bocht</t>
+  </si>
+  <si>
+    <t>houten treinbrug</t>
+  </si>
+  <si>
+    <t>brug start, end, mid</t>
+  </si>
+  <si>
+    <t>brug support</t>
+  </si>
+  <si>
+    <t>grond</t>
+  </si>
+  <si>
+    <t>GRIDBASED</t>
   </si>
 </sst>
 </file>
@@ -263,10 +332,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -566,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -585,10 +654,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
@@ -770,6 +839,10 @@
       </c>
     </row>
     <row r="14" spans="1:9">
+      <c r="A14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="D14" t="s">
         <v>32</v>
       </c>
@@ -787,6 +860,10 @@
       </c>
     </row>
     <row r="15" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="D15" t="s">
         <v>31</v>
       </c>
@@ -801,11 +878,22 @@
       </c>
     </row>
     <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
       <c r="G16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
@@ -813,7 +901,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
@@ -821,7 +912,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
       <c r="D20" t="s">
         <v>54</v>
       </c>
@@ -829,7 +923,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
       <c r="D21" t="s">
         <v>55</v>
       </c>
@@ -837,7 +934,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
       <c r="D22" t="s">
         <v>56</v>
       </c>
@@ -845,7 +945,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
       <c r="D23" t="s">
         <v>57</v>
       </c>
@@ -853,7 +956,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
       <c r="D24" t="s">
         <v>58</v>
       </c>
@@ -861,7 +967,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
       <c r="D25" t="s">
         <v>59</v>
       </c>
@@ -869,7 +978,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
       <c r="D26" t="s">
         <v>60</v>
       </c>
@@ -877,27 +989,76 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
       <c r="D27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
       <c r="D28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
       <c r="D29" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
